--- a/acm-services/acm-service-participants/src/main/resources/rules/drools-participant-assignment-rules.xlsx
+++ b/acm-services/acm-service-participants/src/main/resources/rules/drools-participant-assignment-rules.xlsx
@@ -20,12 +20,12 @@
     <definedName name="ObjectTypes">Sheet2!$A$2:$A$51</definedName>
     <definedName name="ParticipantTypes">Sheet2!$B$2:$B$51</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>RuleSet</t>
   </si>
@@ -51,88 +51,105 @@
     <t>CONDITION</t>
   </si>
   <si>
+    <t>If different rules apply to the same object, all rules apply; changes made by subsequent rules overwrite changes made by previous rules.</t>
+  </si>
+  <si>
+    <t>Rule Name</t>
+  </si>
+  <si>
+    <t>Type of Object to be Assigned</t>
+  </si>
+  <si>
+    <t>COMPLAINT</t>
+  </si>
+  <si>
+    <t>Object Types</t>
+  </si>
+  <si>
+    <t>Participant Types</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>Owner's Supervisor</t>
+  </si>
+  <si>
+    <t>FILE</t>
+  </si>
+  <si>
+    <t>PARTICIPANT</t>
+  </si>
+  <si>
+    <t>ACCESS CONTROL LIST</t>
+  </si>
+  <si>
+    <t>EscapeQuotes</t>
+  </si>
+  <si>
+    <t>$acmObject: CheckParticipantListModel</t>
+  </si>
+  <si>
+    <t>objectType.equals("$param")</t>
+  </si>
+  <si>
+    <t>acmObject.?[objectType== 'CASE_FILE']</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.EvaluationContext</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.Expression</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.ExpressionParser</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.spel.standard.SpelExpressionParser</t>
+  </si>
+  <si>
+    <t>org.springframework.expression.spel.support.StandardEvaluationContext</t>
+  </si>
+  <si>
+    <t>com.armedia.acm.services.participants.model.CheckParticipantListModel</t>
+  </si>
+  <si>
+    <t>Case File - Check participants list for NoAccess &amp; Owner</t>
+  </si>
+  <si>
+    <t>java.util.ArrayList</t>
+  </si>
+  <si>
+    <t>java.util.List</t>
+  </si>
+  <si>
+    <t>participants.?[participantType == 'assignee'].isEmpty() &amp;&amp; participants.?[participantType == 'no access'].isEmpty()</t>
+  </si>
+  <si>
+    <t>participants.?[participantType == 'assignee'] == participants.?[participantType == 'no access']</t>
+  </si>
+  <si>
+    <t>eval(evalBoolean("$param", $acmObject))</t>
+  </si>
+  <si>
+    <t>Expression 1
+Must be a Spring expression that evaluates to true or false.</t>
+  </si>
+  <si>
+    <t>Expression 2
+Must be a Spring expression that evaluates to true or false.</t>
+  </si>
+  <si>
     <t>ACTION</t>
   </si>
   <si>
-    <t>If different rules apply to the same object, all rules apply; changes made by subsequent rules overwrite changes made by previous rules.</t>
-  </si>
-  <si>
-    <t>Rule Name</t>
-  </si>
-  <si>
-    <t>Type of Object to be Assigned</t>
-  </si>
-  <si>
-    <t>COMPLAINT</t>
-  </si>
-  <si>
-    <t>Object Types</t>
-  </si>
-  <si>
-    <t>Participant Types</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>TASK</t>
-  </si>
-  <si>
-    <t>Owner's Supervisor</t>
-  </si>
-  <si>
-    <t>FILE</t>
-  </si>
-  <si>
-    <t>PARTICIPANT</t>
-  </si>
-  <si>
-    <t>ACCESS CONTROL LIST</t>
-  </si>
-  <si>
-    <t>EscapeQuotes</t>
-  </si>
-  <si>
-    <t>$acmObject: CheckParticipantListModel</t>
-  </si>
-  <si>
-    <t>objectType.equals("$param")</t>
-  </si>
-  <si>
-    <t>acmObject.?[objectType== 'CASE_FILE']</t>
-  </si>
-  <si>
-    <t>org.springframework.expression.EvaluationContext</t>
-  </si>
-  <si>
-    <t>org.springframework.expression.Expression</t>
-  </si>
-  <si>
-    <t>org.springframework.expression.ExpressionParser</t>
-  </si>
-  <si>
-    <t>org.springframework.expression.spel.standard.SpelExpressionParser</t>
-  </si>
-  <si>
-    <t>org.springframework.expression.spel.support.StandardEvaluationContext</t>
-  </si>
-  <si>
-    <t>com.armedia.acm.services.participants.model.CheckParticipantListModel</t>
-  </si>
-  <si>
-    <t>checkParticipant($acmObject);</t>
-  </si>
-  <si>
-    <t>Return list of errors if present</t>
-  </si>
-  <si>
-    <t>Case File - Check participants list for NoAccess &amp; Owner</t>
-  </si>
-  <si>
-    <t>java.util.ArrayList</t>
-  </si>
-  <si>
-    <t>java.util.List</t>
+    <t>addError($acmObject, checkNoAccess("assignee", $acmObject))</t>
+  </si>
+  <si>
+    <t>Add error to the list</t>
   </si>
   <si>
     <t>function Boolean evalBoolean(String expression, Object obj)
@@ -143,33 +160,43 @@
     Boolean evaluated = exp.getValue(ec, obj, Boolean.class);
     return evaluated;
 }
-function void checkParticipant(CheckParticipantListModel model)
+function void addError(CheckParticipantListModel model, String error)
 {
-    if(model.getParticipantList() != null){
-         String assignee;
-         assignee = getAssignee(model);
-         List&lt;String&gt; listOfErrors = model.getErrors() != null ? model.getErrors() : new ArrayList&lt;String&gt;();
-               for(AcmParticipant ap : model.getParticipantList())
-               {
-                   if(ap.getParticipantLdapId().equals(assignee) &amp;&amp;  ap.getParticipantType().equals('No Access'))
-                   {                                                                                                                              
-                      listOfErrors.add("The combination of Assignee and No Access is not possible");
-                   } 
-                }
-          model.setErrors(listOfErrors);
+    if(error != null &amp;&amp; !"".equals(error)){
+         if(model.getErrors() == null)
+         {
+              model.setErrors(new ArrayList());
+         }
+          model.getErrors().add(error);
       }
 }
 function String getAssignee(CheckParticipantListModel model){
     String assignee = "";
    if(model.getParticipantList() != null){
       for(AcmParticipant ap: model.getParticipantList()){
-          if(ap.getParticipantType().equals('Assignee')){
+          if(ap.getParticipantType().equals('аssignee')){
              assignee = ap.getParticipantLdapId();
              break;
           }
       }
     }
      return assignee;
+}
+function String checkNoAccess(String participantType, CheckParticipantListModel model)
+{
+    if(model.getParticipantList() != null)
+    {
+         String assignee = "";
+         assignee =  getAssignee(model);
+         for(AcmParticipant ap : model.getParticipantList())
+         {
+             if (ap.getParticipantLdapId().equals(assignee) &amp;&amp;  ap.getParticipantType().equals('No Access'))
+            {
+                return "The combination of " + participantType + " and No Access is not possible";
+             } 
+         }
+    }
+    return null;
 }</t>
   </si>
 </sst>
@@ -196,7 +223,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,14 +266,8 @@
         <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -345,21 +366,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -391,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -405,22 +411,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,27 +810,26 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125"/>
     <col min="2" max="2" width="24.28515625"/>
-    <col min="3" max="3" width="49.85546875"/>
-    <col min="4" max="4" width="81.7109375" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875"/>
-    <col min="6" max="6" width="30.5703125"/>
-    <col min="7" max="7" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="1025" width="8.7109375"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="101.140625" customWidth="1"/>
+    <col min="5" max="5" width="83.5703125" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" customWidth="1"/>
+    <col min="7" max="7" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="1024" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -836,67 +839,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
@@ -906,47 +909,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="17" t="b">
+        <v>20</v>
+      </c>
+      <c r="D13" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
@@ -954,63 +957,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+      <c r="D18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="16"/>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1038,41 +1071,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/acm-services/acm-service-participants/src/main/resources/rules/drools-participant-assignment-rules.xlsx
+++ b/acm-services/acm-service-participants/src/main/resources/rules/drools-participant-assignment-rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="5940" tabRatio="535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="5145" tabRatio="535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>RuleSet</t>
   </si>
@@ -90,15 +90,9 @@
     <t>EscapeQuotes</t>
   </si>
   <si>
-    <t>$acmObject: CheckParticipantListModel</t>
-  </si>
-  <si>
     <t>objectType.equals("$param")</t>
   </si>
   <si>
-    <t>acmObject.?[objectType== 'CASE_FILE']</t>
-  </si>
-  <si>
     <t>org.springframework.expression.EvaluationContext</t>
   </si>
   <si>
@@ -124,35 +118,38 @@
   </si>
   <si>
     <t>java.util.List</t>
-  </si>
-  <si>
-    <t>participants.?[participantType == 'assignee'].isEmpty() &amp;&amp; participants.?[participantType == 'no access'].isEmpty()</t>
-  </si>
-  <si>
-    <t>participants.?[participantType == 'assignee'] == participants.?[participantType == 'no access']</t>
-  </si>
-  <si>
-    <t>eval(evalBoolean("$param", $acmObject))</t>
   </si>
   <si>
     <t>Expression 1
 Must be a Spring expression that evaluates to true or false.</t>
   </si>
   <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>Add error to the list</t>
+  </si>
+  <si>
+    <t>$model: CheckParticipantListModel</t>
+  </si>
+  <si>
+    <t>eval(evalBoolean("$param", $model))</t>
+  </si>
+  <si>
+    <t>CASE_FILE</t>
+  </si>
+  <si>
+    <t>$model.addErrorMessage("$param");</t>
+  </si>
+  <si>
+    <t>Assignees cannot be on the no-access list.</t>
+  </si>
+  <si>
     <t>Expression 2
-Must be a Spring expression that evaluates to true or false.</t>
-  </si>
-  <si>
-    <t>ACTION</t>
-  </si>
-  <si>
-    <t>addError($acmObject, checkNoAccess("assignee", $acmObject))</t>
-  </si>
-  <si>
-    <t>Add error to the list</t>
-  </si>
-  <si>
-    <t>function Boolean evalBoolean(String expression, Object obj)
+Must be a Spring expression that evaluates to true or false. Check whether assignee is of not null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function Boolean evalBoolean(String expression, Object obj)
 {
     ExpressionParser ep = new SpelExpressionParser();
     Expression exp = ep.parseExpression(expression);
@@ -160,44 +157,23 @@
     Boolean evaluated = exp.getValue(ec, obj, Boolean.class);
     return evaluated;
 }
-function void addError(CheckParticipantListModel model, String error)
+function void addErrorMessage(CheckParticipantListModel model, String error)
 {
     if(error != null &amp;&amp; !"".equals(error)){
-         if(model.getErrors() == null)
+         if(model.getErrorsList() == null)
          {
-              model.setErrors(new ArrayList());
+              model.setErrorsList(new ArrayList());
          }
-          model.getErrors().add(error);
+          model.getErrorsList().add(error);
       }
 }
-function String getAssignee(CheckParticipantListModel model){
-    String assignee = "";
-   if(model.getParticipantList() != null){
-      for(AcmParticipant ap: model.getParticipantList()){
-          if(ap.getParticipantType().equals('аssignee')){
-             assignee = ap.getParticipantLdapId();
-             break;
-          }
-      }
-    }
-     return assignee;
-}
-function String checkNoAccess(String participantType, CheckParticipantListModel model)
-{
-    if(model.getParticipantList() != null)
-    {
-         String assignee = "";
-         assignee =  getAssignee(model);
-         for(AcmParticipant ap : model.getParticipantList())
-         {
-             if (ap.getParticipantLdapId().equals(assignee) &amp;&amp;  ap.getParticipantType().equals('No Access'))
-            {
-                return "The combination of " + participantType + " and No Access is not possible";
-             } 
-         }
-    }
-    return null;
-}</t>
+</t>
+  </si>
+  <si>
+    <t>participants['No Access'].contains(participants['assignee'][0])</t>
+  </si>
+  <si>
+    <t>participants != null &amp;&amp; participants.containsKey('No Access') &amp;&amp; participants.containsKey('assignee')</t>
   </si>
 </sst>
 </file>
@@ -812,8 +788,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -856,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -866,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -876,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -886,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -896,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -916,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -926,17 +902,17 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="360" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -980,24 +956,22 @@
         <v>7</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>35</v>
@@ -1006,7 +980,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -1020,30 +994,32 @@
         <v>10</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
